--- a/HIT 중고나라 URL 정보.xlsx
+++ b/HIT 중고나라 URL 정보.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunna\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF550822-0949-4077-BCB1-B28458B54CD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07082DFB-BE17-4A7D-8590-B5CB5CA6172F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5472" xr2:uid="{3A7852B1-D86F-4579-9430-E340EF18371D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RequestBody 요청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,47 +79,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/findEmail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name, phoneNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/findPassword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name, email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/signup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, nickName, password, name, phoneNumber, school</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -238,6 +206,202 @@
     buy_product_title
   }
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복 검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/oauth2?loginType=naver or kakao or google</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/oauth2/code/{loginType}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, signStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기(sms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/findId/는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 번호는 국가 번호 + 핸드폰 번호로 기입 예) +8617512345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기(email)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/findId/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signStatus 가 true일 경우 이미 회원 가입한 회원,  false 일 경우 회원가입이 필요한 회원 / 소셜 로그인이에서 직접 url을 요청하기 때문에 client에서는 url 응답만 받으면 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기(email)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기(sms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/user/login/findPassword/sms </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/findPassword/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name, phoneNumber, userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name, email, userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 인증 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/user/login/checkVerificationCode/userId?verificationType=email or sms </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verificationKey , verificationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verificationKey = 핸드폰 번호 or, 이메일, verificationCode = 인증 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 인증 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/checkVerificationCode/password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인 코드 요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/reissue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토근 재발급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRED_TOKEN 에러 타입이 발생하면 토큰 재발급 요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId, email, password, name, nickName, phoneNumber, loginType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginType은 회원이 입력하는 것이 아닌 클라이언트(react 쪽에서 입력 후 요청을 보내줘야 한다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/user/signUp/duplicateUserId?userId = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 사용 가능한 아이디, false = 이미 존재하는 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signUp/sms/verification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 중복검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signUp/sms/checkCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verificationKey = 핸드폰 번호, verificationCode = 인증 코드/ true = 인증 코드 일치, false = 인증 코드 불일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -363,9 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -375,8 +536,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,13 +545,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,481 +872,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD8050A-64E9-4E64-AC9A-ABCE37AFA817}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" customWidth="1"/>
+    <col min="1" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="62.296875" customWidth="1"/>
+    <col min="6" max="6" width="59.296875" customWidth="1"/>
     <col min="7" max="7" width="39.09765625" customWidth="1"/>
-    <col min="8" max="8" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="137.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="b">
+      <c r="G8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="b">
+      <c r="E22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="b">
+      <c r="H22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="b">
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="183" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="156.6">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="156.6">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="243.6">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1"/>
@@ -1195,64 +1390,104 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="183" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="156.6">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="156.6">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
@@ -1265,46 +1500,385 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="243.6">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B24:B25"/>
+  <mergeCells count="110">
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
